--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2021 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2021 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C946E7-A3C3-4EA7-9795-D34894AB1453}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15322CD-C908-4F25-9B0B-B7D959E8000F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$Q$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$B$1:$P$192</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_Temp!$B$1:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_Temp!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique list'!$A$1:$D$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6020" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5572" uniqueCount="566">
   <si>
     <t>name</t>
   </si>
@@ -13340,7 +13340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -20277,9 +20277,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -20360,28 +20360,28 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>406</v>
+        <v>555</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>299</v>
+        <v>61</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>65</v>
@@ -20396,42 +20396,42 @@
         <v>43</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>327</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>435</v>
+        <v>556</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>65</v>
@@ -20446,42 +20446,42 @@
         <v>43</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O3" s="27" t="s">
         <v>327</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>467</v>
+        <v>564</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>165</v>
+        <v>287</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>65</v>
@@ -20496,1415 +20496,15 @@
         <v>43</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="O4" s="27" t="s">
         <v>327</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>532</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>534</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>548</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>561</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P29" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>562</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P32" s="27" t="s">
         <v>44</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2021 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2021 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DE027-E069-4279-83E1-28AB9CB4D325}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0314D641-1AE1-40AE-9131-849A70F09D4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6213" uniqueCount="568">
   <si>
     <t>name</t>
   </si>
@@ -3115,7 +3115,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93CE1F4-58D8-43EE-AB6F-729506CC4BC5}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20303,9 +20305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C59DE6-4396-47E0-AB75-FC0A8E1A5F9A}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="5" sqref="A6:XFD6 A24:XFD24 A26:XFD26 A28:XFD28 A29:XFD29 A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22226,9 +22228,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -22307,155 +22309,311 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="B3" s="26" t="s">
+    <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="34"/>
+    </row>
+    <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C6" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="28" t="s">
+      <c r="D6" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="27" t="s">
+      <c r="I6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N6" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="O3" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="P3" s="27" t="s">
+      <c r="O6" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="P6" s="29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="P4" s="27" t="s">
+      <c r="Q6" s="34"/>
+    </row>
+    <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="P7" s="29" t="s">
         <v>44</v>
       </c>
+      <c r="Q7" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2021 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2021 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360CDF19-87E2-4BFC-A59C-1E05021C3E9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC27A7D-992B-4037-A233-3A7D9E60CA8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="PREBENEFITS_Temp" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$R$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$269</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique list'!$A$1:$D$59</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9032" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8964" uniqueCount="785">
   <si>
     <t>name</t>
   </si>
@@ -2419,6 +2419,33 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>141.36*</t>
+  </si>
+  <si>
+    <t>171.92*</t>
+  </si>
+  <si>
+    <t>141.52*</t>
+  </si>
+  <si>
+    <t>54.48*</t>
+  </si>
+  <si>
+    <t>80.56*</t>
+  </si>
+  <si>
+    <t>114.96*</t>
+  </si>
+  <si>
+    <t>218.64*</t>
+  </si>
+  <si>
+    <t>166.79*</t>
+  </si>
+  <si>
+    <t>64.26*</t>
   </si>
 </sst>
 </file>
@@ -2615,7 +2642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2698,6 +2725,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4304,8 +4334,8 @@
   <dimension ref="A1:R269"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18795,7 +18825,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25648,7 +25678,7 @@
         <v>53</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="I127" s="28" t="s">
         <v>4</v>
@@ -25702,7 +25732,7 @@
         <v>53</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="I128" s="28" t="s">
         <v>177</v>
@@ -25756,7 +25786,7 @@
         <v>53</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>186</v>
@@ -25810,7 +25840,7 @@
         <v>53</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="I130" s="28" t="s">
         <v>179</v>
@@ -25864,7 +25894,7 @@
         <v>53</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="I131" s="28" t="s">
         <v>178</v>
@@ -25918,7 +25948,7 @@
         <v>53</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>691</v>
+        <v>781</v>
       </c>
       <c r="I132" s="28" t="s">
         <v>180</v>
@@ -28416,7 +28446,7 @@
         <v>431</v>
       </c>
       <c r="H179" s="27" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="I179" s="28" t="s">
         <v>177</v>
@@ -28469,7 +28499,7 @@
         <v>431</v>
       </c>
       <c r="H180" s="27" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="I180" s="28" t="s">
         <v>186</v>
@@ -28522,7 +28552,7 @@
         <v>431</v>
       </c>
       <c r="H181" s="27" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="I181" s="28" t="s">
         <v>179</v>
@@ -28575,7 +28605,7 @@
         <v>431</v>
       </c>
       <c r="H182" s="27" t="s">
-        <v>759</v>
+        <v>615</v>
       </c>
       <c r="I182" s="28" t="s">
         <v>178</v>
@@ -28628,7 +28658,7 @@
         <v>431</v>
       </c>
       <c r="H183" s="27" t="s">
-        <v>760</v>
+        <v>616</v>
       </c>
       <c r="I183" s="28" t="s">
         <v>180</v>
@@ -30977,7 +31007,7 @@
         <v>53</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>177</v>
@@ -31031,7 +31061,7 @@
         <v>53</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>186</v>
@@ -31085,7 +31115,7 @@
         <v>53</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>691</v>
+        <v>781</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>180</v>
@@ -31459,7 +31489,7 @@
         <v>431</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>177</v>
@@ -31550,11 +31580,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31636,43 +31666,43 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>492</v>
+        <v>358</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="32" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>409</v>
+        <v>102</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>408</v>
+        <v>141</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>433</v>
+        <v>103</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>510</v>
+        <v>174</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>763</v>
+        <v>673</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>177</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>46</v>
@@ -31686,52 +31716,53 @@
       <c r="Q2" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>185</v>
@@ -31742,172 +31773,172 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>411</v>
@@ -31922,10 +31953,10 @@
         <v>511</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>57</v>
@@ -31940,227 +31971,15 @@
         <v>42</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q11" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2021 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2021 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC27A7D-992B-4037-A233-3A7D9E60CA8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D0525F-B96A-4336-9BCC-AB5B0D445F18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="PREBENEFITS_Temp" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$269</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique list'!$A$1:$D$59</definedName>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8964" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9627" uniqueCount="787">
   <si>
     <t>name</t>
   </si>
@@ -2421,21 +2420,12 @@
     <t>NA</t>
   </si>
   <si>
-    <t>141.36*</t>
-  </si>
-  <si>
     <t>171.92*</t>
   </si>
   <si>
     <t>141.52*</t>
   </si>
   <si>
-    <t>54.48*</t>
-  </si>
-  <si>
-    <t>80.56*</t>
-  </si>
-  <si>
     <t>114.96*</t>
   </si>
   <si>
@@ -2446,6 +2436,21 @@
   </si>
   <si>
     <t>64.26*</t>
+  </si>
+  <si>
+    <t>158.33*</t>
+  </si>
+  <si>
+    <t>130.30*</t>
+  </si>
+  <si>
+    <t>50.06*</t>
+  </si>
+  <si>
+    <t>74.11*</t>
+  </si>
+  <si>
+    <t>105.82*</t>
   </si>
 </sst>
 </file>
@@ -2642,7 +2647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2725,9 +2730,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4333,9 +4335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2F52-651D-4DC7-9A3A-1A35D081C6D9}">
   <dimension ref="A1:R269"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+    <sheetView topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18825,7 +18827,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25678,7 +25680,7 @@
         <v>53</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>776</v>
+        <v>695</v>
       </c>
       <c r="I127" s="28" t="s">
         <v>4</v>
@@ -25732,7 +25734,7 @@
         <v>53</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="I128" s="28" t="s">
         <v>177</v>
@@ -25786,7 +25788,7 @@
         <v>53</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>186</v>
@@ -25840,7 +25842,7 @@
         <v>53</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="I130" s="28" t="s">
         <v>179</v>
@@ -25894,7 +25896,7 @@
         <v>53</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="I131" s="28" t="s">
         <v>178</v>
@@ -25948,7 +25950,7 @@
         <v>53</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="I132" s="28" t="s">
         <v>180</v>
@@ -28446,7 +28448,7 @@
         <v>431</v>
       </c>
       <c r="H179" s="27" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I179" s="28" t="s">
         <v>177</v>
@@ -28499,7 +28501,7 @@
         <v>431</v>
       </c>
       <c r="H180" s="27" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I180" s="28" t="s">
         <v>186</v>
@@ -28552,7 +28554,7 @@
         <v>431</v>
       </c>
       <c r="H181" s="27" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="I181" s="28" t="s">
         <v>179</v>
@@ -31007,7 +31009,7 @@
         <v>53</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>177</v>
@@ -31061,7 +31063,7 @@
         <v>53</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>186</v>
@@ -31115,7 +31117,7 @@
         <v>53</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>180</v>
@@ -31489,7 +31491,7 @@
         <v>431</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>177</v>
@@ -31580,11 +31582,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31666,28 +31668,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>358</v>
+        <v>443</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>102</v>
+        <v>395</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>141</v>
+        <v>394</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>103</v>
+        <v>423</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>174</v>
+        <v>506</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>673</v>
+        <v>716</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>177</v>
@@ -31716,35 +31718,34 @@
       <c r="Q2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>770</v>
+        <v>717</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>57</v>
@@ -31759,10 +31760,10 @@
         <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>185</v>
@@ -31773,31 +31774,31 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>57</v>
@@ -31812,45 +31813,45 @@
         <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>772</v>
+        <v>719</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>57</v>
@@ -31865,45 +31866,45 @@
         <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>773</v>
+        <v>696</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>57</v>
@@ -31918,68 +31919,2135 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B46" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C46" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D46" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E46" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F46" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G46" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H46" s="27" t="s">
         <v>774</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I46" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="27" t="s">
+      <c r="J46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O46" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="P7" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="27" t="s">
+      <c r="P46" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q46" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2021 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2021 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D0525F-B96A-4336-9BCC-AB5B0D445F18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E1DD08-0732-4273-981F-FCC96AEE4CA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="PREBENEFITS_Temp" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$R$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$304</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique list'!$A$1:$D$59</definedName>
   </definedNames>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9627" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10378" uniqueCount="881">
   <si>
     <t>name</t>
   </si>
@@ -2438,19 +2439,301 @@
     <t>64.26*</t>
   </si>
   <si>
-    <t>158.33*</t>
-  </si>
-  <si>
-    <t>130.30*</t>
-  </si>
-  <si>
-    <t>50.06*</t>
-  </si>
-  <si>
-    <t>74.11*</t>
-  </si>
-  <si>
-    <t>105.82*</t>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Richland County</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan F + wellness extras</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan G + wellness extras</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan N + wellness extras</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan A + wellness extras</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan K + wellness extras</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan L + wellness extras</t>
+  </si>
+  <si>
+    <t>NLE plans means without Additional Service plans i.e 02 plans</t>
+  </si>
+  <si>
+    <t>ELE plans means with Additional Service plans i.e 01 plans</t>
+  </si>
+  <si>
+    <t>In NLE state, ELE plans displays as + Wellness Text</t>
+  </si>
+  <si>
+    <t>MS269</t>
+  </si>
+  <si>
+    <t>MS270</t>
+  </si>
+  <si>
+    <t>MS271</t>
+  </si>
+  <si>
+    <t>MS272</t>
+  </si>
+  <si>
+    <t>MS273</t>
+  </si>
+  <si>
+    <t>MS274</t>
+  </si>
+  <si>
+    <t>MS275</t>
+  </si>
+  <si>
+    <t>MS276</t>
+  </si>
+  <si>
+    <t>MS277</t>
+  </si>
+  <si>
+    <t>MS278</t>
+  </si>
+  <si>
+    <t>MS279</t>
+  </si>
+  <si>
+    <t>96.13*</t>
+  </si>
+  <si>
+    <t>83.96*</t>
+  </si>
+  <si>
+    <t>128.53*</t>
+  </si>
+  <si>
+    <t>106.89*</t>
+  </si>
+  <si>
+    <t>83.32*</t>
+  </si>
+  <si>
+    <t>62.32*</t>
+  </si>
+  <si>
+    <t>41.59*</t>
+  </si>
+  <si>
+    <t>73.19*</t>
+  </si>
+  <si>
+    <t>70.44*</t>
+  </si>
+  <si>
+    <t>68.20*</t>
+  </si>
+  <si>
+    <t>106.13*</t>
+  </si>
+  <si>
+    <t>29002</t>
+  </si>
+  <si>
+    <t>45011</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Butler County</t>
+  </si>
+  <si>
+    <t>69.00*</t>
+  </si>
+  <si>
+    <t>104.77*</t>
+  </si>
+  <si>
+    <t>91.12*</t>
+  </si>
+  <si>
+    <t>73.00*</t>
+  </si>
+  <si>
+    <t>131.77*</t>
+  </si>
+  <si>
+    <t>101.27*</t>
+  </si>
+  <si>
+    <t>39.43*</t>
+  </si>
+  <si>
+    <t>77.64*</t>
+  </si>
+  <si>
+    <t>91.81*</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Surry County</t>
+  </si>
+  <si>
+    <t>27007</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>81.42*</t>
+  </si>
+  <si>
+    <t>109.90*</t>
+  </si>
+  <si>
+    <t>86.86*</t>
+  </si>
+  <si>
+    <t>68.31*</t>
+  </si>
+  <si>
+    <t>93.58*</t>
+  </si>
+  <si>
+    <t>44.70*</t>
+  </si>
+  <si>
+    <t>72.11*</t>
+  </si>
+  <si>
+    <t>88.44*</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan D + wellness extras</t>
+  </si>
+  <si>
+    <t>157.30*</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>100.43*</t>
+  </si>
+  <si>
+    <t>MS280</t>
+  </si>
+  <si>
+    <t>MS281</t>
+  </si>
+  <si>
+    <t>MS282</t>
+  </si>
+  <si>
+    <t>MS283</t>
+  </si>
+  <si>
+    <t>MS284</t>
+  </si>
+  <si>
+    <t>MS285</t>
+  </si>
+  <si>
+    <t>MS286</t>
+  </si>
+  <si>
+    <t>MS287</t>
+  </si>
+  <si>
+    <t>MS288</t>
+  </si>
+  <si>
+    <t>MS289</t>
+  </si>
+  <si>
+    <t>MS290</t>
+  </si>
+  <si>
+    <t>MS291</t>
+  </si>
+  <si>
+    <t>MS292</t>
+  </si>
+  <si>
+    <t>MS293</t>
+  </si>
+  <si>
+    <t>MS294</t>
+  </si>
+  <si>
+    <t>MS295</t>
+  </si>
+  <si>
+    <t>MS296</t>
+  </si>
+  <si>
+    <t>MS297</t>
+  </si>
+  <si>
+    <t>MS298</t>
+  </si>
+  <si>
+    <t>MS299</t>
+  </si>
+  <si>
+    <t>MS300</t>
+  </si>
+  <si>
+    <t>MS301</t>
+  </si>
+  <si>
+    <t>MS302</t>
+  </si>
+  <si>
+    <t>MS303</t>
+  </si>
+  <si>
+    <t>115.38*</t>
+  </si>
+  <si>
+    <t>133.36*</t>
+  </si>
+  <si>
+    <t>162.16*</t>
+  </si>
+  <si>
+    <t>133.52*</t>
+  </si>
+  <si>
+    <t>51.44*</t>
+  </si>
+  <si>
+    <t>75.92*</t>
+  </si>
+  <si>
+    <t>108.56*</t>
   </si>
 </sst>
 </file>
@@ -3746,7 +4029,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,6 +4123,9 @@
       <c r="C9" s="18" t="s">
         <v>118</v>
       </c>
+      <c r="G9" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -3851,6 +4137,9 @@
       <c r="C10" s="18" t="s">
         <v>119</v>
       </c>
+      <c r="G10" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -3861,6 +4150,9 @@
       </c>
       <c r="C11" s="18" t="s">
         <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4333,11 +4625,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2F52-651D-4DC7-9A3A-1A35D081C6D9}">
-  <dimension ref="A1:R269"/>
+  <dimension ref="A1:R304"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18813,7 +19105,1865 @@
         <v>43</v>
       </c>
     </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A270" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="B270" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="C270" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D270" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E270" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F270" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G270" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H270" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="I270" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J270" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K270" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L270" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M270" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N270" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O270" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P270" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q270" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A271" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="B271" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="C271" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D271" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E271" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F271" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G271" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H271" s="27" t="s">
+        <v>812</v>
+      </c>
+      <c r="I271" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J271" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K271" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L271" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M271" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N271" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O271" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P271" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q271" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A272" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="B272" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="C272" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D272" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E272" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F272" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G272" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H272" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="I272" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J272" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K272" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L272" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M272" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N272" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O272" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P272" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q272" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A273" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="B273" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="C273" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D273" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E273" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F273" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G273" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H273" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="I273" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J273" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K273" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L273" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M273" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N273" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O273" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P273" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q273" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A274" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="B274" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="D274" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E274" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F274" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G274" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H274" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="I274" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J274" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K274" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L274" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M274" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N274" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O274" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P274" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q274" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A275" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="B275" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D275" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E275" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F275" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G275" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H275" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="I275" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J275" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K275" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L275" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M275" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N275" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O275" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P275" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q275" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A276" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="B276" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="D276" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E276" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F276" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G276" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H276" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="I276" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J276" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K276" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L276" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M276" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N276" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O276" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P276" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q276" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A277" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="B277" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D277" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E277" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F277" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G277" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H277" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="I277" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J277" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K277" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L277" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M277" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N277" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O277" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P277" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q277" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A278" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="B278" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D278" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E278" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F278" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G278" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H278" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="I278" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J278" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K278" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L278" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M278" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N278" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O278" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P278" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q278" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A279" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="B279" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D279" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E279" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F279" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G279" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H279" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="I279" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J279" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K279" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L279" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M279" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N279" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O279" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P279" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q279" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A280" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="B280" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D280" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E280" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F280" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G280" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H280" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="I280" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J280" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K280" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L280" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M280" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N280" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O280" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P280" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q280" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A281" s="31" t="s">
+        <v>850</v>
+      </c>
+      <c r="B281" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="C281" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D281" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E281" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F281" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G281" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H281" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="I281" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J281" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K281" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L281" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M281" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N281" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O281" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P281" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q281" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A282" s="31" t="s">
+        <v>851</v>
+      </c>
+      <c r="B282" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="C282" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D282" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E282" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F282" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G282" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H282" s="27" t="s">
+        <v>874</v>
+      </c>
+      <c r="I282" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J282" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K282" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L282" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M282" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N282" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O282" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P282" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q282" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A283" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="B283" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="C283" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D283" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E283" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F283" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G283" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H283" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="I283" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J283" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K283" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L283" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M283" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N283" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O283" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P283" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q283" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A284" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="B284" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="C284" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D284" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E284" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F284" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G284" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H284" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="I284" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J284" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K284" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L284" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M284" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N284" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O284" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P284" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q284" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A285" s="31" t="s">
+        <v>854</v>
+      </c>
+      <c r="B285" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C285" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="D285" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E285" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F285" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G285" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H285" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="I285" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J285" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K285" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L285" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M285" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N285" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O285" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P285" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q285" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A286" s="31" t="s">
+        <v>855</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D286" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E286" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F286" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G286" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H286" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="I286" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J286" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K286" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L286" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M286" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N286" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O286" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P286" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q286" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A287" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="B287" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="D287" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E287" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F287" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G287" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H287" s="27" t="s">
+        <v>829</v>
+      </c>
+      <c r="I287" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J287" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K287" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L287" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M287" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N287" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O287" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P287" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q287" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A288" s="31" t="s">
+        <v>857</v>
+      </c>
+      <c r="B288" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D288" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E288" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F288" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G288" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H288" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="I288" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J288" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K288" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L288" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M288" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N288" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O288" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P288" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q288" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A289" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="B289" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D289" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E289" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F289" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G289" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H289" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="I289" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J289" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K289" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L289" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M289" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N289" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O289" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P289" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q289" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A290" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="B290" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D290" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E290" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F290" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G290" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H290" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="I290" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J290" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K290" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L290" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M290" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N290" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O290" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P290" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q290" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A291" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="B291" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D291" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E291" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F291" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G291" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H291" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="I291" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J291" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K291" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L291" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M291" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N291" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O291" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P291" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q291" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A292" s="31" t="s">
+        <v>861</v>
+      </c>
+      <c r="B292" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="C292" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D292" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E292" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F292" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G292" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H292" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="I292" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J292" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K292" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L292" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M292" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N292" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O292" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P292" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q292" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A293" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="B293" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="C293" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D293" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E293" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F293" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G293" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H293" s="27" t="s">
+        <v>839</v>
+      </c>
+      <c r="I293" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J293" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K293" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L293" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M293" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N293" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O293" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P293" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q293" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A294" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="B294" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="C294" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D294" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E294" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F294" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G294" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H294" s="27" t="s">
+        <v>840</v>
+      </c>
+      <c r="I294" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J294" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K294" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L294" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M294" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N294" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O294" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P294" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q294" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A295" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="B295" s="26" t="s">
+        <v>848</v>
+      </c>
+      <c r="C295" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D295" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E295" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F295" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G295" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H295" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="I295" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J295" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K295" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L295" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M295" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N295" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O295" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P295" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q295" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R295" s="31"/>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A296" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="B296" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="C296" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D296" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E296" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F296" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G296" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H296" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="I296" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J296" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K296" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L296" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M296" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N296" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O296" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P296" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q296" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A297" s="31" t="s">
+        <v>866</v>
+      </c>
+      <c r="B297" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C297" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="D297" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E297" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F297" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G297" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H297" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="I297" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J297" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K297" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L297" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M297" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N297" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O297" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P297" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q297" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A298" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D298" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E298" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F298" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G298" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H298" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="I298" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J298" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K298" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L298" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M298" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N298" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O298" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P298" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q298" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A299" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="B299" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="D299" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E299" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F299" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G299" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H299" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I299" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J299" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K299" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L299" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M299" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N299" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O299" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P299" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q299" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A300" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="B300" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D300" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E300" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F300" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G300" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H300" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="I300" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J300" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K300" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L300" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M300" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N300" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O300" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P300" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q300" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A301" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B301" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D301" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E301" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F301" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G301" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H301" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="I301" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J301" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K301" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L301" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M301" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N301" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O301" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P301" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q301" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A302" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="B302" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D302" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E302" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F302" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G302" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H302" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="I302" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J302" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K302" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L302" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M302" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N302" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O302" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P302" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q302" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A303" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="B303" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D303" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E303" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F303" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G303" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H303" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="I303" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J303" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K303" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L303" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M303" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N303" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O303" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P303" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q303" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A304" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="B304" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="D304" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E304" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F304" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G304" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H304" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="I304" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J304" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K304" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L304" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M304" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N304" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O304" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P304" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q304" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R304" s="31"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:R304" xr:uid="{850FDD6A-27D3-49F5-9D6B-004491AA421C}"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -18823,11 +20973,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
-  <dimension ref="A1:R193"/>
+  <dimension ref="A1:R219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25680,7 +27830,7 @@
         <v>53</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>695</v>
+        <v>875</v>
       </c>
       <c r="I127" s="28" t="s">
         <v>4</v>
@@ -25734,7 +27884,7 @@
         <v>53</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>782</v>
+        <v>876</v>
       </c>
       <c r="I128" s="28" t="s">
         <v>177</v>
@@ -25788,7 +27938,7 @@
         <v>53</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>783</v>
+        <v>877</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>186</v>
@@ -25842,7 +27992,7 @@
         <v>53</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>784</v>
+        <v>878</v>
       </c>
       <c r="I130" s="28" t="s">
         <v>179</v>
@@ -25896,7 +28046,7 @@
         <v>53</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>785</v>
+        <v>879</v>
       </c>
       <c r="I131" s="28" t="s">
         <v>178</v>
@@ -25950,7 +28100,7 @@
         <v>53</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>786</v>
+        <v>880</v>
       </c>
       <c r="I132" s="28" t="s">
         <v>180</v>
@@ -29219,6 +31369,1386 @@
       <c r="Q193" s="27" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A194" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="C194" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F194" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G194" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H194" s="27" t="s">
+        <v>812</v>
+      </c>
+      <c r="I194" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J194" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K194" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L194" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M194" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N194" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O194" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P194" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q194" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A195" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="B195" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F195" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G195" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H195" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="I195" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J195" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K195" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L195" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M195" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N195" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O195" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P195" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q195" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A196" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="B196" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="C196" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F196" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G196" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H196" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="I196" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J196" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K196" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L196" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M196" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N196" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O196" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P196" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q196" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A197" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E197" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F197" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G197" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H197" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="I197" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J197" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K197" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L197" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M197" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N197" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O197" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P197" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q197" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A198" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F198" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G198" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H198" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="I198" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J198" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K198" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L198" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M198" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N198" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O198" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P198" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q198" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A199" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D199" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E199" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F199" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G199" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H199" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="I199" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J199" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K199" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L199" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M199" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N199" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O199" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P199" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q199" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A200" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E200" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F200" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G200" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H200" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="I200" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J200" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K200" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L200" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M200" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N200" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O200" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P200" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q200" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A201" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F201" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="G201" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H201" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="I201" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J201" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K201" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L201" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M201" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N201" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O201" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P201" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q201" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A202" s="31" t="s">
+        <v>851</v>
+      </c>
+      <c r="B202" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="C202" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E202" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F202" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G202" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H202" s="27" t="s">
+        <v>874</v>
+      </c>
+      <c r="I202" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J202" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K202" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L202" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M202" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N202" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O202" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P202" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q202" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A203" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="C203" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E203" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F203" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G203" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H203" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="I203" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J203" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K203" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L203" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M203" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N203" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O203" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P203" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q203" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A204" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="C204" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D204" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E204" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F204" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G204" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H204" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="I204" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J204" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K204" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L204" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M204" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N204" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O204" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P204" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q204" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A205" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="B205" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E205" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F205" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G205" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H205" s="27" t="s">
+        <v>829</v>
+      </c>
+      <c r="I205" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J205" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K205" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L205" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M205" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N205" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O205" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P205" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q205" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A206" s="31" t="s">
+        <v>857</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E206" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F206" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G206" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H206" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="I206" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J206" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K206" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L206" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M206" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N206" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O206" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P206" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q206" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A207" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D207" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E207" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F207" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G207" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H207" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="I207" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J207" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K207" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L207" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M207" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N207" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O207" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P207" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q207" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A208" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E208" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F208" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G208" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H208" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="I208" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J208" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K208" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L208" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M208" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N208" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O208" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P208" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q208" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A209" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="B209" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D209" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E209" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F209" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G209" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H209" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="I209" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J209" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K209" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L209" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M209" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N209" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O209" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P209" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q209" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A210" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="B210" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E210" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F210" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G210" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H210" s="27" t="s">
+        <v>839</v>
+      </c>
+      <c r="I210" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J210" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K210" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L210" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M210" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N210" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O210" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P210" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q210" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A211" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="B211" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="C211" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E211" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F211" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G211" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H211" s="27" t="s">
+        <v>840</v>
+      </c>
+      <c r="I211" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J211" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K211" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L211" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M211" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N211" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O211" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P211" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q211" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A212" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>848</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D212" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E212" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F212" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G212" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H212" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="I212" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J212" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K212" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L212" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M212" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N212" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O212" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P212" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q212" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R212" s="31"/>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A213" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="B213" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D213" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E213" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F213" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G213" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H213" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="I213" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J213" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K213" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L213" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M213" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N213" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O213" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P213" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q213" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A214" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="B214" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="D214" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E214" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F214" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G214" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H214" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I214" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J214" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K214" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L214" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M214" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N214" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O214" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P214" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q214" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A215" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="B215" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D215" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F215" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G215" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H215" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="I215" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J215" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K215" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L215" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M215" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N215" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O215" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P215" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q215" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A216" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B216" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D216" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F216" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G216" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H216" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="I216" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J216" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K216" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L216" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M216" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N216" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O216" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P216" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q216" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A217" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="B217" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D217" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E217" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F217" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G217" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H217" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="I217" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J217" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K217" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L217" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M217" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N217" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O217" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P217" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q217" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A218" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="B218" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F218" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G218" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H218" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="I218" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J218" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K218" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L218" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M218" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N218" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O218" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P218" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q218" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A219" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="B219" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E219" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F219" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G219" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H219" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="I219" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J219" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K219" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L219" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M219" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N219" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O219" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P219" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q219" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R219" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31582,11 +35112,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A2:A46"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31668,7 +35198,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
@@ -31677,19 +35207,19 @@
         <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>716</v>
+        <v>770</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>177</v>
@@ -31721,7 +35251,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>8</v>
@@ -31730,19 +35260,19 @@
         <v>152</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>717</v>
+        <v>771</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>186</v>
@@ -31774,7 +35304,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>9</v>
@@ -31783,19 +35313,19 @@
         <v>149</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>718</v>
+        <v>772</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>179</v>
@@ -31827,7 +35357,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>10</v>
@@ -31836,19 +35366,19 @@
         <v>150</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>719</v>
+        <v>773</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>178</v>
@@ -31880,7 +35410,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>11</v>
@@ -31889,19 +35419,19 @@
         <v>145</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>696</v>
+        <v>774</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>180</v>
@@ -31933,40 +35463,40 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>450</v>
+        <v>799</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>7</v>
+        <v>786</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>425</v>
+      <c r="D7" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>424</v>
+        <v>820</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>177</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>193</v>
@@ -31986,40 +35516,40 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>8</v>
+        <v>787</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>425</v>
+      <c r="D8" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>424</v>
+        <v>820</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>723</v>
+        <v>810</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>186</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>193</v>
@@ -32039,84 +35569,84 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>452</v>
+        <v>801</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>9</v>
+        <v>788</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>425</v>
+        <v>145</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>424</v>
+        <v>820</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>193</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>453</v>
+        <v>804</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>425</v>
+        <v>789</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>424</v>
+        <v>820</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>521</v>
+        <v>811</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>57</v>
@@ -32128,48 +35658,48 @@
         <v>41</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>454</v>
+        <v>805</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>425</v>
+        <v>790</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>424</v>
+        <v>820</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>725</v>
+        <v>809</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>57</v>
@@ -32181,13 +35711,13 @@
         <v>41</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>185</v>
@@ -32198,31 +35728,31 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>426</v>
+        <v>793</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>507</v>
+        <v>820</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>57</v>
@@ -32237,45 +35767,45 @@
         <v>42</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>458</v>
+        <v>807</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>426</v>
+        <v>794</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>507</v>
+        <v>820</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>729</v>
+        <v>816</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>57</v>
@@ -32290,45 +35820,45 @@
         <v>42</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>459</v>
+        <v>808</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>426</v>
+        <v>791</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>507</v>
+        <v>820</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>730</v>
+        <v>813</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>57</v>
@@ -32343,116 +35873,116 @@
         <v>42</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>460</v>
+        <v>862</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>10</v>
+        <v>786</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>426</v>
+        <v>151</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>507</v>
+        <v>836</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>731</v>
+        <v>839</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>461</v>
+        <v>863</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>11</v>
+        <v>787</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>426</v>
+        <v>152</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>507</v>
+        <v>836</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>732</v>
+        <v>840</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N16" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>185</v>
@@ -32461,51 +35991,51 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>464</v>
+        <v>864</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>7</v>
+        <v>848</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>427</v>
+        <v>148</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>508</v>
+        <v>836</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>735</v>
+        <v>849</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>185</v>
@@ -32513,52 +36043,53 @@
       <c r="Q17" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>465</v>
+        <v>865</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>8</v>
+        <v>788</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>427</v>
+        <v>145</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>508</v>
+        <v>836</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>736</v>
+        <v>841</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N18" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>185</v>
@@ -32567,246 +36098,246 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>466</v>
+        <v>868</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="I19" s="28" t="s">
+      <c r="C21" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="I21" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="J19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="27" t="s">
+      <c r="J21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O21" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="P19" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="27" t="s">
+      <c r="P21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="B20" s="26" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>738</v>
-      </c>
-      <c r="I20" s="28" t="s">
+      <c r="C22" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="J20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="27" t="s">
+      <c r="J22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="P20" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q20" s="27" t="s">
+      <c r="P22" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="B21" s="26" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>739</v>
-      </c>
-      <c r="I21" s="28" t="s">
+      <c r="C23" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="I23" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="J21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>743</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>186</v>
-      </c>
       <c r="J23" s="27" t="s">
         <v>57</v>
       </c>
@@ -32817,13 +36348,13 @@
         <v>41</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N23" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>185</v>
@@ -32832,33 +36363,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>473</v>
+        <v>873</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>429</v>
+        <v>846</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>428</v>
+        <v>836</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>744</v>
+        <v>847</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>57</v>
@@ -32870,48 +36401,49 @@
         <v>41</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="R24" s="31"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>474</v>
+        <v>416</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>428</v>
+        <v>504</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>745</v>
+        <v>702</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J25" s="27" t="s">
         <v>57</v>
@@ -32923,48 +36455,48 @@
         <v>41</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>428</v>
+        <v>504</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>746</v>
+        <v>703</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J26" s="27" t="s">
         <v>57</v>
@@ -32976,13 +36508,13 @@
         <v>41</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N26" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>185</v>
@@ -32991,33 +36523,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>749</v>
+        <v>704</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>57</v>
@@ -33032,45 +36564,45 @@
         <v>42</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q27" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>750</v>
+        <v>705</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J28" s="27" t="s">
         <v>57</v>
@@ -33085,969 +36617,68 @@
         <v>42</v>
       </c>
       <c r="N28" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O28" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>47</v>
-      </c>
       <c r="O29" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q36" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q38" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P39" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q39" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q43" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q44" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q46" s="27" t="s">
         <v>43</v>
       </c>
     </row>
